--- a/doc/04_画面遷移図さん_b1.xlsx
+++ b/doc/04_画面遷移図さん_b1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5A9DF5-C4CD-4B3C-BD82-B3345F3315E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6494B-4AC9-42EB-AAC9-2D4C43A8A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="996" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -97,12 +97,15 @@
     <t>かけいぼっち</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ヘッダーで④⑤⑥⑦⑧⑨それぞれ飛べるようする</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +144,22 @@
       <b/>
       <u/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -204,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,17 +236,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,16 +1171,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>277827</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541624</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>34345</xdr:rowOff>
+      <xdr:rowOff>33075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>350217</xdr:colOff>
+      <xdr:colOff>3144</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>34346</xdr:rowOff>
+      <xdr:rowOff>33076</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1170,8 +1195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7005198" y="1939345"/>
-          <a:ext cx="1291590" cy="489858"/>
+          <a:off x="6659395" y="1938075"/>
+          <a:ext cx="1290320" cy="489858"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1292,6 +1317,15 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>⑧投稿画面</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(buytter)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2618,15 +2652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1203053</xdr:colOff>
+      <xdr:colOff>1197974</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>36329</xdr:rowOff>
+      <xdr:rowOff>36327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>79374</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122283</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>24235</xdr:rowOff>
+      <xdr:rowOff>2539</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2641,10 +2675,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189549" y="1941329"/>
-          <a:ext cx="3836396" cy="965080"/>
-          <a:chOff x="3870334" y="2408700"/>
-          <a:chExt cx="4154217" cy="984145"/>
+          <a:off x="4184470" y="1941327"/>
+          <a:ext cx="3276054" cy="945926"/>
+          <a:chOff x="3862095" y="2408699"/>
+          <a:chExt cx="3546475" cy="958235"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2663,8 +2697,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="3870334" y="2653629"/>
-            <a:ext cx="1090466" cy="577804"/>
+            <a:off x="3862095" y="2688038"/>
+            <a:ext cx="1050708" cy="539696"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2759,8 +2793,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4960801" y="2408700"/>
-            <a:ext cx="1254760" cy="489858"/>
+            <a:off x="4912803" y="2408699"/>
+            <a:ext cx="1302758" cy="558677"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2793,7 +2827,15 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>⑩目標設定画面</a:t>
+              <a:t>⑩目標設定</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>画面</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2813,9 +2855,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6215561" y="2653629"/>
-            <a:ext cx="706796" cy="1845"/>
+          <a:xfrm flipV="1">
+            <a:off x="6215561" y="2652234"/>
+            <a:ext cx="329171" cy="35804"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2853,13 +2895,12 @@
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="252" idx="2"/>
-            <a:endCxn id="14" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7620733" y="2905571"/>
-            <a:ext cx="403818" cy="487274"/>
+            <a:off x="7244602" y="2901673"/>
+            <a:ext cx="163968" cy="465261"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -3153,6 +3194,67 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22098</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>79374</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>58337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019CD3FE-1F2D-B847-61F5-570CDC8B290E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1" flipV="1">
+          <a:off x="4903136" y="-16471"/>
+          <a:ext cx="201199" cy="6044418"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -822385"/>
+            <a:gd name="adj2" fmla="val 99939"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3826,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3849,7 +3951,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3863,77 +3965,150 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>45084</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
     </row>
     <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H2:V4"/>
+    <mergeCell ref="B51:G52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_画面遷移図さん_b1.xlsx
+++ b/doc/04_画面遷移図さん_b1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6494B-4AC9-42EB-AAC9-2D4C43A8A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B9E6D-BA08-4BEB-BBD7-96A5D1E48A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="996" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>ヘッダーで④⑤⑥⑦⑧⑨それぞれ飛べるようする</t>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -242,6 +246,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,9 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -277,13 +281,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>405131</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>27019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>77471</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>58948</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -299,8 +303,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3385277" y="2745908"/>
-          <a:ext cx="1590765" cy="1344564"/>
+          <a:off x="3385277" y="4052193"/>
+          <a:ext cx="1590765" cy="1344565"/>
           <a:chOff x="3111487" y="1268384"/>
           <a:chExt cx="1608018" cy="1393499"/>
         </a:xfrm>
@@ -439,13 +443,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>404705</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>16615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>368722</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>139383</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -514,13 +518,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>952077</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>22238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>482177</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>124565</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -536,7 +540,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3934763" y="4700555"/>
+          <a:off x="3934763" y="6006841"/>
           <a:ext cx="2053045" cy="597264"/>
           <a:chOff x="3934763" y="5192784"/>
           <a:chExt cx="2053045" cy="606154"/>
@@ -644,13 +648,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>630103</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>85608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>558630</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>117370</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -666,7 +670,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="633913" y="3134878"/>
+          <a:off x="633913" y="4441164"/>
           <a:ext cx="2904863" cy="2153206"/>
           <a:chOff x="630886" y="3634736"/>
           <a:chExt cx="2891546" cy="2139433"/>
@@ -1039,13 +1043,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>77471</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>44945</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>402165</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>160281</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1061,7 +1065,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4976042" y="3420786"/>
+          <a:off x="4976042" y="4727072"/>
           <a:ext cx="938104" cy="441908"/>
           <a:chOff x="4976054" y="3917975"/>
           <a:chExt cx="941930" cy="427278"/>
@@ -1173,13 +1177,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>541624</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>33075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>3144</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>33076</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1239,15 +1243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>345805</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>13590</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>253216</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>58580</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>187900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90509</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1262,10 +1266,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10121176" y="4370416"/>
-          <a:ext cx="2952871" cy="536117"/>
-          <a:chOff x="7772695" y="6106278"/>
-          <a:chExt cx="2939876" cy="525840"/>
+          <a:off x="10156371" y="5673994"/>
+          <a:ext cx="6512500" cy="732769"/>
+          <a:chOff x="6077230" y="5847065"/>
+          <a:chExt cx="6492217" cy="720521"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1281,7 +1285,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="8733911" y="6106278"/>
+            <a:off x="10590787" y="6041746"/>
             <a:ext cx="1978660" cy="525840"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1345,8 +1349,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="7772695" y="6159007"/>
-            <a:ext cx="961216" cy="210192"/>
+            <a:off x="6077230" y="5847065"/>
+            <a:ext cx="4513557" cy="457601"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1381,13 +1385,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>442643</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>126262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>597264</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>138413</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1403,7 +1407,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7777074" y="4809659"/>
+          <a:off x="7777074" y="6115945"/>
           <a:ext cx="1983421" cy="1313357"/>
           <a:chOff x="9916687" y="3293957"/>
           <a:chExt cx="1983740" cy="1331763"/>
@@ -1513,13 +1517,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>99544</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>150206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>248860</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>143311</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1535,7 +1539,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5605175" y="4831063"/>
+          <a:off x="5605175" y="6137349"/>
           <a:ext cx="1984466" cy="2277835"/>
           <a:chOff x="6482382" y="5347604"/>
           <a:chExt cx="1979386" cy="2296885"/>
@@ -1767,15 +1771,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>363643</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>42801</xdr:rowOff>
+      <xdr:colOff>375796</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>518111</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>81991</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>483457</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4521</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1790,10 +1794,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10142824" y="3581928"/>
-          <a:ext cx="6853718" cy="855619"/>
-          <a:chOff x="8260824" y="5186614"/>
-          <a:chExt cx="6832157" cy="862522"/>
+          <a:off x="10149897" y="4812014"/>
+          <a:ext cx="6202391" cy="854348"/>
+          <a:chOff x="8259557" y="5043958"/>
+          <a:chExt cx="6172098" cy="862522"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1809,7 +1813,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10691040" y="5372947"/>
+            <a:off x="9877179" y="5285159"/>
             <a:ext cx="1978660" cy="532190"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1865,8 +1869,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="8260824" y="5461228"/>
-            <a:ext cx="2430216" cy="177815"/>
+            <a:off x="8259557" y="5468361"/>
+            <a:ext cx="1617622" cy="82893"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1907,7 +1911,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="13114321" y="5186614"/>
+            <a:off x="12452995" y="5043958"/>
             <a:ext cx="1978660" cy="862522"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -1979,8 +1983,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="12669700" y="5617878"/>
-            <a:ext cx="444622" cy="21164"/>
+            <a:off x="11855839" y="5475220"/>
+            <a:ext cx="597156" cy="76036"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2015,13 +2019,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>21395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>555170</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>89250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2037,7 +2041,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10080171" y="4706062"/>
+          <a:off x="10080171" y="6012348"/>
           <a:ext cx="5130980" cy="2352585"/>
           <a:chOff x="-694487" y="3891080"/>
           <a:chExt cx="5175994" cy="2246203"/>
@@ -2146,13 +2150,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>328138</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>10903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>593370</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>78512</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2209,13 +2213,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>27077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>441415</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85618</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2231,8 +2235,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10156371" y="1602966"/>
-          <a:ext cx="4325075" cy="1858493"/>
+          <a:off x="10156371" y="2909251"/>
+          <a:ext cx="4325075" cy="1858494"/>
           <a:chOff x="10156371" y="2090115"/>
           <a:chExt cx="4325075" cy="1873733"/>
         </a:xfrm>
@@ -2652,15 +2656,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1197974</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>36327</xdr:rowOff>
+      <xdr:colOff>1203054</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>36328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122283</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2539</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>402772</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21773</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2675,10 +2679,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4184470" y="1941327"/>
-          <a:ext cx="3276054" cy="945926"/>
+          <a:off x="4189550" y="3247614"/>
+          <a:ext cx="6602003" cy="968969"/>
           <a:chOff x="3862095" y="2408699"/>
-          <a:chExt cx="3546475" cy="958235"/>
+          <a:chExt cx="7149096" cy="983900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2894,13 +2898,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="252" idx="2"/>
+            <a:stCxn id="252" idx="3"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7244602" y="2901673"/>
-            <a:ext cx="163968" cy="465261"/>
+            <a:off x="7937982" y="2653774"/>
+            <a:ext cx="3073209" cy="738825"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2934,13 +2938,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>555172</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>59121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>596731</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>78512</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2956,7 +2960,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15211153" y="6376645"/>
+          <a:off x="15211153" y="7682931"/>
           <a:ext cx="1864009" cy="505438"/>
           <a:chOff x="15211153" y="6859984"/>
           <a:chExt cx="1864009" cy="514328"/>
@@ -3071,15 +3075,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>136979</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>54654</xdr:rowOff>
+      <xdr:colOff>134439</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>62272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>212962</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>160370</xdr:rowOff>
+      <xdr:colOff>214233</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161639</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3094,10 +3098,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15396210" y="5392464"/>
-          <a:ext cx="1904783" cy="1246176"/>
-          <a:chOff x="15396210" y="5882153"/>
-          <a:chExt cx="1914943" cy="1261416"/>
+          <a:off x="15400020" y="6700018"/>
+          <a:ext cx="1902244" cy="1246177"/>
+          <a:chOff x="15395957" y="5882153"/>
+          <a:chExt cx="1915196" cy="1257561"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -3200,13 +3204,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>22098</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>20424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>79374</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>58337</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3255,6 +3259,388 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>187900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28848</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>10250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EB08B1-2EAF-4A00-B276-D8D7F621500C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16668871" y="4833089"/>
+          <a:ext cx="1060148" cy="674447"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>187900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>137070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1271</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E707699-C552-4384-848C-86785A241804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16668871" y="4654641"/>
+          <a:ext cx="1032571" cy="178448"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>187900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>23042</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152232</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9584F414-205F-4855-B02A-94B627D15E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="128" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16668871" y="3692798"/>
+          <a:ext cx="1054342" cy="1140291"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>31388</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>64044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>405312</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>118473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68628DE8-E360-4326-9159-C6BE481AD4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17731559" y="5234758"/>
+          <a:ext cx="1593124" cy="544286"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1271</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>380275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93740F65-7E9D-4296-BCBE-7F3306FB22A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17701442" y="4383133"/>
+          <a:ext cx="1598204" cy="546826"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>402046</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D060FD-33AE-49B0-9002-F809B1889E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17721943" y="3419385"/>
+          <a:ext cx="1599474" cy="541746"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>TL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3928,10 +4314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3968,147 +4354,190 @@
       <c r="D2" s="5">
         <v>45084</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="D4" s="5">
+        <v>45085</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
     </row>
-    <row r="6" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="14" spans="1:22" ht="21" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
-    <row r="53" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+    <row r="61" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
     </row>
-    <row r="54" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+    <row r="62" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
     </row>
-    <row r="55" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+    <row r="63" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
     </row>
-    <row r="56" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+    <row r="64" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
     </row>
-    <row r="57" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+    <row r="65" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
     </row>
-    <row r="58" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+    <row r="66" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H2:V4"/>
-    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="B59:G60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_画面遷移図さん_b1.xlsx
+++ b/doc/04_画面遷移図さん_b1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46B9E6D-BA08-4BEB-BBD7-96A5D1E48A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A7C4D1-DED4-4FFF-B9F0-6462CCBCD2B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="996" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -72,16 +72,6 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>センイズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>塙さんシゴデキなんで定期</t>
-    <rPh sb="0" eb="1">
-      <t>ハナワ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -303,8 +293,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3385277" y="4052193"/>
-          <a:ext cx="1590765" cy="1344565"/>
+          <a:off x="3391615" y="4174363"/>
+          <a:ext cx="1587262" cy="1381304"/>
           <a:chOff x="3111487" y="1268384"/>
           <a:chExt cx="1608018" cy="1393499"/>
         </a:xfrm>
@@ -540,8 +530,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3934763" y="6006841"/>
-          <a:ext cx="2053045" cy="597264"/>
+          <a:off x="3938561" y="6193644"/>
+          <a:ext cx="2050257" cy="608343"/>
           <a:chOff x="3934763" y="5192784"/>
           <a:chExt cx="2053045" cy="606154"/>
         </a:xfrm>
@@ -670,8 +660,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="633913" y="4441164"/>
-          <a:ext cx="2904863" cy="2153206"/>
+          <a:off x="630103" y="4570296"/>
+          <a:ext cx="2915011" cy="2224496"/>
           <a:chOff x="630886" y="3634736"/>
           <a:chExt cx="2891546" cy="2139433"/>
         </a:xfrm>
@@ -1065,8 +1055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4976042" y="4727072"/>
-          <a:ext cx="938104" cy="441908"/>
+          <a:off x="4978877" y="4866976"/>
+          <a:ext cx="929929" cy="452680"/>
           <a:chOff x="4976054" y="3917975"/>
           <a:chExt cx="941930" cy="427278"/>
         </a:xfrm>
@@ -1266,8 +1256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10156371" y="5673994"/>
-          <a:ext cx="6512500" cy="732769"/>
+          <a:off x="10124281" y="5844946"/>
+          <a:ext cx="6464478" cy="754313"/>
           <a:chOff x="6077230" y="5847065"/>
           <a:chExt cx="6492217" cy="720521"/>
         </a:xfrm>
@@ -1407,8 +1397,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7777074" y="6115945"/>
-          <a:ext cx="1983421" cy="1313357"/>
+          <a:off x="7764987" y="6297668"/>
+          <a:ext cx="1970324" cy="1361526"/>
           <a:chOff x="9916687" y="3293957"/>
           <a:chExt cx="1983740" cy="1331763"/>
         </a:xfrm>
@@ -1539,8 +1529,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5605175" y="6137349"/>
-          <a:ext cx="1984466" cy="2277835"/>
+          <a:off x="5606185" y="6321612"/>
+          <a:ext cx="1965019" cy="2354512"/>
           <a:chOff x="6482382" y="5347604"/>
           <a:chExt cx="1979386" cy="2296885"/>
         </a:xfrm>
@@ -1794,8 +1784,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10149897" y="4812014"/>
-          <a:ext cx="6202391" cy="854348"/>
+          <a:off x="10119077" y="4950648"/>
+          <a:ext cx="6160005" cy="887936"/>
           <a:chOff x="8259557" y="5043958"/>
           <a:chExt cx="6172098" cy="862522"/>
         </a:xfrm>
@@ -2041,8 +2031,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10080171" y="6012348"/>
-          <a:ext cx="5130980" cy="2352585"/>
+          <a:off x="10048081" y="6192801"/>
+          <a:ext cx="5092245" cy="2429262"/>
           <a:chOff x="-694487" y="3891080"/>
           <a:chExt cx="5175994" cy="2246203"/>
         </a:xfrm>
@@ -2212,15 +2202,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>355256</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>27077</xdr:rowOff>
+      <xdr:rowOff>40411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>441415</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>4930</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>85618</xdr:rowOff>
+      <xdr:rowOff>160334</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2235,10 +2225,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10156371" y="2909251"/>
-          <a:ext cx="4325075" cy="1858494"/>
-          <a:chOff x="10156371" y="2090115"/>
-          <a:chExt cx="4325075" cy="1873733"/>
+          <a:off x="10098537" y="3007052"/>
+          <a:ext cx="4491549" cy="1975313"/>
+          <a:chOff x="10156371" y="2024404"/>
+          <a:chExt cx="4522655" cy="1936904"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2254,10 +2244,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="10156371" y="2779725"/>
-            <a:ext cx="4328885" cy="1181583"/>
-            <a:chOff x="10156371" y="2784805"/>
-            <a:chExt cx="4327615" cy="1181583"/>
+            <a:off x="10156371" y="2024404"/>
+            <a:ext cx="4522655" cy="1936904"/>
+            <a:chOff x="10156371" y="2029484"/>
+            <a:chExt cx="4521328" cy="1936904"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -2332,9 +2322,9 @@
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
               </a:schemeClr>
             </a:solidFill>
           </xdr:spPr>
@@ -2359,7 +2349,7 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>着せ替え</a:t>
+                <a:t>⑥着せ替え</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             </a:p>
@@ -2432,8 +2422,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipH="1">
-              <a:off x="12099047" y="3186366"/>
-              <a:ext cx="97366" cy="201809"/>
+              <a:off x="12057321" y="2392945"/>
+              <a:ext cx="1764186" cy="1003179"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -2473,7 +2463,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11361176" y="2784805"/>
+              <a:off x="12965315" y="2029484"/>
               <a:ext cx="1712384" cy="363461"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -2512,92 +2502,7 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8CC8526-B9E8-48C0-93C5-32C254CC429D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="16" idx="1"/>
-              <a:endCxn id="15" idx="3"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="12387336" y="3186365"/>
-              <a:ext cx="918088" cy="517799"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
       </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="162" name="直線矢印コネクタ 161">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FFE9D3-953D-40FF-81A2-096AF0DA3AAD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11207206" y="2487023"/>
-            <a:ext cx="2540" cy="900974"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="163" name="角丸四角形 1">
@@ -2611,16 +2516,16 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10691042" y="2090115"/>
+            <a:off x="10710080" y="2096465"/>
             <a:ext cx="1722809" cy="372351"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
             </a:schemeClr>
           </a:solidFill>
         </xdr:spPr>
@@ -2645,7 +2550,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>キャラの図鑑</a:t>
+              <a:t>⑥キャラの図鑑</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2679,8 +2584,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189550" y="3247614"/>
-          <a:ext cx="6602003" cy="968969"/>
+          <a:off x="4189538" y="3340312"/>
+          <a:ext cx="6561750" cy="997477"/>
           <a:chOff x="3862095" y="2408699"/>
           <a:chExt cx="7149096" cy="983900"/>
         </a:xfrm>
@@ -2960,8 +2865,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15211153" y="7682931"/>
-          <a:ext cx="1864009" cy="505438"/>
+          <a:off x="15140328" y="7917246"/>
+          <a:ext cx="1857262" cy="525407"/>
           <a:chOff x="15211153" y="6859984"/>
           <a:chExt cx="1864009" cy="514328"/>
         </a:xfrm>
@@ -3075,15 +2980,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>134439</xdr:colOff>
+      <xdr:colOff>159692</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>62272</xdr:rowOff>
+      <xdr:rowOff>27948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>214233</xdr:colOff>
+      <xdr:colOff>239486</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>161639</xdr:rowOff>
+      <xdr:rowOff>127315</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3098,8 +3003,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15400020" y="6700018"/>
-          <a:ext cx="1902244" cy="1246177"/>
+          <a:off x="15350083" y="6874042"/>
+          <a:ext cx="1895497" cy="1280070"/>
           <a:chOff x="15395957" y="5882153"/>
           <a:chExt cx="1915196" cy="1257561"/>
         </a:xfrm>
@@ -3264,133 +3169,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>187900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152232</xdr:rowOff>
+      <xdr:colOff>206957</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>28848</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EB08B1-2EAF-4A00-B276-D8D7F621500C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="49" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16668871" y="4833089"/>
-          <a:ext cx="1060148" cy="674447"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>187900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>137070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1271</xdr:colOff>
+      <xdr:colOff>21772</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>152232</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E707699-C552-4384-848C-86785A241804}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="63" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16668871" y="4654641"/>
-          <a:ext cx="1032571" cy="178448"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>187900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>154941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>23042</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152232</xdr:rowOff>
+      <xdr:rowOff>142650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3402,14 +3189,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
           <a:endCxn id="128" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16668871" y="3692798"/>
-          <a:ext cx="1054342" cy="1140291"/>
+          <a:off x="16739636" y="6080580"/>
+          <a:ext cx="1039457" cy="147487"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3441,15 +3227,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>31388</xdr:colOff>
+      <xdr:colOff>38948</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>64044</xdr:rowOff>
+      <xdr:rowOff>147199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>405312</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>118473</xdr:rowOff>
+      <xdr:colOff>412872</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>35319</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3464,16 +3250,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17731559" y="5234758"/>
-          <a:ext cx="1593124" cy="544286"/>
+          <a:off x="17796269" y="6731544"/>
+          <a:ext cx="1598567" cy="553358"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -3498,7 +3284,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索画面</a:t>
+            <a:t>⑧検索画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3508,15 +3294,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1271</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28847</xdr:rowOff>
+      <xdr:colOff>61311</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>380275</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85816</xdr:rowOff>
+      <xdr:colOff>442059</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3531,16 +3317,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17701442" y="4383133"/>
-          <a:ext cx="1598204" cy="546826"/>
+          <a:off x="17818632" y="4870430"/>
+          <a:ext cx="1605391" cy="555899"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -3565,7 +3351,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>投稿画面</a:t>
+            <a:t>⑧投稿画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3576,14 +3362,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44814</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>402046</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>96702</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104262</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3598,16 +3384,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17721943" y="3419385"/>
-          <a:ext cx="1599474" cy="541746"/>
+          <a:off x="17779093" y="5805171"/>
+          <a:ext cx="1604917" cy="550817"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -3631,6 +3417,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑧</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>TL</a:t>
           </a:r>
@@ -3641,6 +3431,245 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>211909</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>251685</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52373</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C39881-1CAF-45D0-974B-4907D2F28BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="128" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18581552" y="5426329"/>
+          <a:ext cx="39776" cy="378842"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>211909</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>225910</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>147199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82966A5-AE21-47D7-BE58-4BF0C58401D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="49" idx="0"/>
+          <a:endCxn id="128" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="18581552" y="6355988"/>
+          <a:ext cx="14001" cy="375556"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438471</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476433</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9F3C52-360A-45B4-81DC-EE9B2BB62669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430836" y="3329835"/>
+          <a:ext cx="37962" cy="910363"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152460</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>455238</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25D4938-3AD3-4ECE-8816-545CA9D0353B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12363338" y="4056218"/>
+          <a:ext cx="912035" cy="486684"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4316,8 +4345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4332,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -4346,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -4354,9 +4383,7 @@
       <c r="D2" s="5">
         <v>45084</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -4377,7 +4404,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -4450,7 +4477,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -4464,7 +4491,7 @@
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>

--- a/doc/04_画面遷移図さん_b1.xlsx
+++ b/doc/04_画面遷移図さん_b1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A7C4D1-DED4-4FFF-B9F0-6462CCBCD2B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54EFDB-5220-48DF-A22C-1B4C30739A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -269,16 +269,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>405131</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>913131</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>27019</xdr:rowOff>
+      <xdr:rowOff>103219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>77471</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166371</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>58948</xdr:rowOff>
+      <xdr:rowOff>135148</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -293,8 +293,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3391615" y="4174363"/>
-          <a:ext cx="1587262" cy="1381304"/>
+          <a:off x="2881631" y="4262469"/>
+          <a:ext cx="1592157" cy="1386596"/>
           <a:chOff x="3111487" y="1268384"/>
           <a:chExt cx="1608018" cy="1393499"/>
         </a:xfrm>
@@ -397,7 +397,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>育成中の</a:t>
+              <a:t>目標期間が</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -405,23 +405,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>キャラの</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>データが</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>あるか否か</a:t>
+              <a:t>設定されてるか否か</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -432,15 +416,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>404705</xdr:colOff>
+      <xdr:colOff>436455</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>16615</xdr:rowOff>
+      <xdr:rowOff>48365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>368722</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>139383</xdr:rowOff>
+      <xdr:colOff>400472</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -455,8 +439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5912876" y="2901329"/>
-          <a:ext cx="4231217" cy="1918911"/>
+          <a:off x="5971538" y="4376948"/>
+          <a:ext cx="4260851" cy="1985435"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -530,8 +514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3938561" y="6193644"/>
-          <a:ext cx="2050257" cy="608343"/>
+          <a:off x="3947160" y="6213488"/>
+          <a:ext cx="2070100" cy="610327"/>
           <a:chOff x="3934763" y="5192784"/>
           <a:chExt cx="2053045" cy="606154"/>
         </a:xfrm>
@@ -636,411 +620,462 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>630103</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85608</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>941071</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558630</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>117370</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>913131</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121162</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="グループ化 19">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D07077E-A2C3-80A0-BD4B-E154F3095B94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F5D509-3FF8-4900-A4D7-D5D94E62B3BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="3"/>
+          <a:endCxn id="233" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="630103" y="4570296"/>
-          <a:ext cx="2915011" cy="2224496"/>
-          <a:chOff x="630886" y="3634736"/>
-          <a:chExt cx="2891546" cy="2139433"/>
+          <a:off x="1880871" y="4794762"/>
+          <a:ext cx="1000760" cy="50800"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F5D509-3FF8-4900-A4D7-D5D94E62B3BC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="9" idx="3"/>
-            <a:endCxn id="233" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2745559" y="3881303"/>
-            <a:ext cx="624411" cy="37340"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="57150">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
             <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="6" name="グループ化 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E96BDF-80AE-1F2E-9D18-0DD4F28B7C62}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="630886" y="3634736"/>
-            <a:ext cx="2891546" cy="2139433"/>
-            <a:chOff x="629616" y="3639817"/>
-            <a:chExt cx="2891546" cy="2125213"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="角丸四角形 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502D6A4E-E44F-43C7-802E-EC018ECBD4AD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1263408" y="3639817"/>
-              <a:ext cx="1480881" cy="489857"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>①ログイン画面</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="角丸四角形 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E28A5B-9E81-4AA4-95B3-D415540E0CCC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="629616" y="5303827"/>
-              <a:ext cx="1028149" cy="451757"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>②新規登録</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E86954F-9A91-4300-A98B-41300487CA40}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="47" idx="3"/>
-              <a:endCxn id="50" idx="1"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="1657765" y="5508035"/>
-              <a:ext cx="602736" cy="21671"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="角丸四角形 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75352EDA-6E62-4F21-813B-F425004E42B2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2260502" y="5251039"/>
-              <a:ext cx="1260660" cy="513991"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>③登録完了の</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            </a:p>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>画面</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50354016-FD1A-4ED4-B6DA-1ABA4A96B0EB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:stCxn id="50" idx="0"/>
-              <a:endCxn id="9" idx="2"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1" flipV="1">
-              <a:off x="2003849" y="4129674"/>
-              <a:ext cx="886984" cy="1121365"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFBA154-5137-4537-A1FB-EF3A0E7DC8B5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr>
-              <a:endCxn id="47" idx="0"/>
-            </xdr:cNvCxnSpPr>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipH="1">
-              <a:off x="1143691" y="4119783"/>
-              <a:ext cx="491344" cy="1184043"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:headEnd type="triangle"/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-    </xdr:grpSp>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>356987</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>915574</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502D6A4E-E44F-43C7-802E-EC018ECBD4AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="356987" y="3095509"/>
+          <a:ext cx="1498387" cy="502039"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236403</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>248006</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E28A5B-9E81-4AA4-95B3-D415540E0CCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2204903" y="3048299"/>
+          <a:ext cx="1040303" cy="462991"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>248006</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464168</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E86954F-9A91-4300-A98B-41300487CA40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="3"/>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3245206" y="3279795"/>
+          <a:ext cx="216162" cy="28590"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>464168</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>136698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431630</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75352EDA-6E62-4F21-813B-F425004E42B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3461368" y="3044998"/>
+          <a:ext cx="1275562" cy="526773"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③登録完了の</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>431630</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>77471</xdr:colOff>
+      <xdr:colOff>255922</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148337</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50354016-FD1A-4ED4-B6DA-1ABA4A96B0EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="248" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4736930" y="3308385"/>
+          <a:ext cx="433892" cy="243552"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>915574</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236403</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFFBA154-5137-4537-A1FB-EF3A0E7DC8B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1855374" y="3279795"/>
+          <a:ext cx="349529" cy="66734"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>166370</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>44945</xdr:rowOff>
+      <xdr:rowOff>121217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>402165</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>160281</xdr:rowOff>
+      <xdr:colOff>436454</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25088</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1055,10 +1090,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4978877" y="4866976"/>
-          <a:ext cx="929929" cy="452680"/>
-          <a:chOff x="4976054" y="3917975"/>
-          <a:chExt cx="941930" cy="427278"/>
+          <a:off x="4473787" y="4957800"/>
+          <a:ext cx="1497750" cy="411871"/>
+          <a:chOff x="4451100" y="3991110"/>
+          <a:chExt cx="1501272" cy="386155"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1077,8 +1112,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4976054" y="3917975"/>
-            <a:ext cx="941930" cy="427278"/>
+            <a:off x="4451100" y="3991110"/>
+            <a:ext cx="1501272" cy="386155"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1118,8 +1153,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5190250" y="4006181"/>
-            <a:ext cx="454235" cy="236099"/>
+            <a:off x="4614078" y="4018361"/>
+            <a:ext cx="924062" cy="258438"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1129,9 +1164,7 @@
           </a:solidFill>
           <a:ln w="9525" cmpd="sng">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -1150,12 +1183,13 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ある</a:t>
+              <a:t>されてる</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -1256,8 +1290,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10124281" y="5844946"/>
-          <a:ext cx="6464478" cy="754313"/>
+          <a:off x="10212917" y="5863466"/>
+          <a:ext cx="6559066" cy="756960"/>
           <a:chOff x="6077230" y="5847065"/>
           <a:chExt cx="6492217" cy="720521"/>
         </a:xfrm>
@@ -1397,8 +1431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7764987" y="6297668"/>
-          <a:ext cx="1970324" cy="1361526"/>
+          <a:off x="7819226" y="6317512"/>
+          <a:ext cx="1996121" cy="1366818"/>
           <a:chOff x="9916687" y="3293957"/>
           <a:chExt cx="1983740" cy="1331763"/>
         </a:xfrm>
@@ -1529,8 +1563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5606185" y="6321612"/>
-          <a:ext cx="1965019" cy="2354512"/>
+          <a:off x="5634627" y="6341456"/>
+          <a:ext cx="1990816" cy="2363772"/>
           <a:chOff x="6482382" y="5347604"/>
           <a:chExt cx="1979386" cy="2296885"/>
         </a:xfrm>
@@ -1761,7 +1795,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>375796</xdr:colOff>
+      <xdr:colOff>400472</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>128617</xdr:rowOff>
     </xdr:from>
@@ -1784,10 +1818,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10119077" y="4950648"/>
-          <a:ext cx="6160005" cy="887936"/>
-          <a:chOff x="8259557" y="5043958"/>
-          <a:chExt cx="6172098" cy="862522"/>
+          <a:off x="10232389" y="4965200"/>
+          <a:ext cx="6221318" cy="891904"/>
+          <a:chOff x="8283941" y="5043958"/>
+          <a:chExt cx="6147714" cy="862522"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1859,8 +1893,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="8259557" y="5468361"/>
-            <a:ext cx="1617622" cy="82893"/>
+            <a:off x="8283941" y="5435100"/>
+            <a:ext cx="1593238" cy="116155"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2007,147 +2041,83 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>21395</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260139</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>140875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>555170</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>89250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388860</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28773</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="137" name="グループ化 136">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFC733D-0AD1-A5F2-7F58-5C7D3631EB1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71F311C-27B1-0A64-1E5F-B40284D3D5AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="10048081" y="6192801"/>
-          <a:ext cx="5092245" cy="2429262"/>
-          <a:chOff x="-694487" y="3891080"/>
-          <a:chExt cx="5175994" cy="2246203"/>
+          <a:off x="11894246" y="7057839"/>
+          <a:ext cx="2578007" cy="1717303"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CE7A9A-09A9-365D-77F2-2DA8B1DFCC6C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:cxnSpLocks/>
-            <a:endCxn id="141" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="-694487" y="3891080"/>
-            <a:ext cx="2584426" cy="1441278"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="57150">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="141" name="角丸四角形 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71F311C-27B1-0A64-1E5F-B40284D3D5AF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1889939" y="4527433"/>
-            <a:ext cx="2591568" cy="1609850"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-              <a:t>⑫目標達成画面</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>⑫目標達成画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>328138</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>10903</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>356987</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>593370</xdr:colOff>
+      <xdr:colOff>575990</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>78512</xdr:rowOff>
+      <xdr:rowOff>78513</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2166,13 +2136,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="7116220" y="-2466437"/>
-          <a:ext cx="3496609" cy="15200432"/>
+          <a:off x="5948597" y="-2245080"/>
+          <a:ext cx="4923483" cy="16106703"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -24974"/>
-            <a:gd name="adj2" fmla="val 106383"/>
+            <a:gd name="adj1" fmla="val -23215"/>
+            <a:gd name="adj2" fmla="val 101419"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="57150">
@@ -2225,8 +2195,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10098537" y="3007052"/>
-          <a:ext cx="4491549" cy="1975313"/>
+          <a:off x="10187173" y="3014328"/>
+          <a:ext cx="4560340" cy="1982589"/>
           <a:chOff x="10156371" y="2024404"/>
           <a:chExt cx="4522655" cy="1936904"/>
         </a:xfrm>
@@ -2561,15 +2531,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1203054</xdr:colOff>
+      <xdr:colOff>679451</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>36328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>402772</xdr:colOff>
+      <xdr:colOff>391583</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>21773</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2584,10 +2554,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4189538" y="3340312"/>
-          <a:ext cx="6561750" cy="997477"/>
-          <a:chOff x="3862095" y="2408699"/>
-          <a:chExt cx="7149096" cy="983900"/>
+          <a:off x="3674534" y="3348911"/>
+          <a:ext cx="7162799" cy="1138422"/>
+          <a:chOff x="3295258" y="2408699"/>
+          <a:chExt cx="7703899" cy="1118477"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2606,8 +2576,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="3862095" y="2688038"/>
-            <a:ext cx="1050708" cy="539696"/>
+            <a:off x="3295258" y="2688038"/>
+            <a:ext cx="1617545" cy="624223"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2647,8 +2617,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4252852" y="2784685"/>
-            <a:ext cx="518719" cy="218149"/>
+            <a:off x="3634163" y="2887102"/>
+            <a:ext cx="946592" cy="368329"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2658,9 +2628,7 @@
           </a:solidFill>
           <a:ln w="9525" cmpd="sng">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -2679,12 +2647,13 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ない</a:t>
+              <a:t>されてない</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2808,8 +2777,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7937982" y="2653774"/>
-            <a:ext cx="3073209" cy="738825"/>
+            <a:off x="7940558" y="2655054"/>
+            <a:ext cx="3058599" cy="872122"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2841,14 +2810,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>555172</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388861</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>59121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>596731</xdr:colOff>
+      <xdr:colOff>596729</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>78512</xdr:rowOff>
     </xdr:to>
@@ -2865,10 +2834,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15140328" y="7917246"/>
-          <a:ext cx="1857262" cy="525407"/>
-          <a:chOff x="15211153" y="6859984"/>
-          <a:chExt cx="1864009" cy="514328"/>
+          <a:off x="14517611" y="7943704"/>
+          <a:ext cx="2663201" cy="527391"/>
+          <a:chOff x="14438539" y="6859984"/>
+          <a:chExt cx="2636623" cy="514328"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2881,13 +2850,14 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
+            <a:stCxn id="141" idx="3"/>
             <a:endCxn id="173" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="15211153" y="7117148"/>
-            <a:ext cx="605066" cy="38576"/>
+          <a:xfrm>
+            <a:off x="14438539" y="6968004"/>
+            <a:ext cx="1380220" cy="149145"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2979,144 +2949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>159692</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>27948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>239486</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>127315</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="185" name="グループ化 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F310DB6E-4562-D929-04B5-F167445D4208}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="15350083" y="6874042"/>
-          <a:ext cx="1895497" cy="1280070"/>
-          <a:chOff x="15395957" y="5882153"/>
-          <a:chExt cx="1915196" cy="1257561"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="177" name="直線矢印コネクタ 176">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CAA829-810F-4535-8FCB-B74E86E19B33}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="15396210" y="5976801"/>
-            <a:ext cx="672375" cy="1166768"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="178" name="角丸四角形 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611ABC32-6CEC-47C0-AF1E-91F8344F0BD1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15590884" y="5882153"/>
-            <a:ext cx="1720269" cy="368541"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>キャラの図鑑登録</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>22098</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>20424</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165323</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>79374</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>58337</xdr:rowOff>
+      <xdr:colOff>111548</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48365</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3129,17 +2971,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1" flipV="1">
-          <a:off x="4903136" y="-16471"/>
-          <a:ext cx="201199" cy="6044418"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3998808" y="273791"/>
+          <a:ext cx="1211589" cy="6994725"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -822385"/>
-            <a:gd name="adj2" fmla="val 99939"/>
+            <a:gd name="adj1" fmla="val 118868"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -3227,13 +3069,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>38948</xdr:colOff>
+      <xdr:colOff>28365</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>147199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>412872</xdr:colOff>
+      <xdr:colOff>402289</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>35319</xdr:rowOff>
     </xdr:to>
@@ -3250,8 +3092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17796269" y="6731544"/>
-          <a:ext cx="1598567" cy="553358"/>
+          <a:off x="17840115" y="6846449"/>
+          <a:ext cx="1601591" cy="565453"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3294,13 +3136,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>61311</xdr:colOff>
+      <xdr:colOff>18979</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>115490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>442059</xdr:colOff>
+      <xdr:colOff>399727</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>6150</xdr:rowOff>
     </xdr:to>
@@ -3317,8 +3159,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17818632" y="4870430"/>
-          <a:ext cx="1605391" cy="555899"/>
+          <a:off x="17830729" y="4952073"/>
+          <a:ext cx="1608415" cy="567994"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3436,13 +3278,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>211909</xdr:colOff>
+      <xdr:colOff>209354</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>6150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>251685</xdr:colOff>
+      <xdr:colOff>211910</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>52373</xdr:rowOff>
     </xdr:to>
@@ -3462,9 +3304,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18581552" y="5426329"/>
-          <a:ext cx="39776" cy="378842"/>
+        <a:xfrm>
+          <a:off x="18634937" y="5520067"/>
+          <a:ext cx="2556" cy="384889"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3497,13 +3339,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>211909</xdr:colOff>
+      <xdr:colOff>211910</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>104262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>225910</xdr:colOff>
+      <xdr:colOff>215328</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>147199</xdr:rowOff>
     </xdr:to>
@@ -3524,8 +3366,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="18581552" y="6355988"/>
-          <a:ext cx="14001" cy="375556"/>
+          <a:off x="18637493" y="6464845"/>
+          <a:ext cx="3418" cy="381604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3558,13 +3400,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>438471</xdr:colOff>
+      <xdr:colOff>476433</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>129092</xdr:rowOff>
+      <xdr:rowOff>156639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>476433</xdr:colOff>
+      <xdr:colOff>554495</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>61212</xdr:rowOff>
     </xdr:to>
@@ -3577,12 +3419,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="163" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11430836" y="3329835"/>
-          <a:ext cx="37962" cy="910363"/>
+        <a:xfrm flipH="1">
+          <a:off x="11536016" y="3469222"/>
+          <a:ext cx="78062" cy="920573"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3670,6 +3514,427 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>290831</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>941071</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84348</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="69" name="グループ化 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2435991-FF52-4914-A435-34A80680F98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="290831" y="4211669"/>
+          <a:ext cx="1592157" cy="1386596"/>
+          <a:chOff x="3111487" y="1268384"/>
+          <a:chExt cx="1608018" cy="1393499"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="ひし形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E334E1D-71B0-E065-2AEE-AFD7300C3C3A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3111487" y="1272460"/>
+            <a:ext cx="1608018" cy="1389423"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216FF28C-C674-6B66-3873-81552400268D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3390900" y="1268384"/>
+            <a:ext cx="1062567" cy="1349092"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>目標期間が</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>過ぎている</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>か否か</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>147262</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>324501</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28772</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="コネクタ: カギ線 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DFB3060-8B7E-4279-8711-F43D17002830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="141" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5498639" y="1090530"/>
+          <a:ext cx="3270615" cy="12098608"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 111613"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="テキスト ボックス 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2377EB-C9E6-47A8-897B-4419A1E294DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000251" y="4443228"/>
+          <a:ext cx="641349" cy="611372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>過ぎて</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152664</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>166381</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52419</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87091537-BD9C-43A0-835E-2F11ECB4B8CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1092464" y="3597548"/>
+          <a:ext cx="13717" cy="518871"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>610871</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7657C67D-E655-44AF-8AE3-21FB1D0DC4BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="610871" y="5919655"/>
+          <a:ext cx="978746" cy="296995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>過ぎてる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4345,8 +4610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:V4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4449,13 +4714,17 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>45086</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">

--- a/doc/04_画面遷移図さん_b1.xlsx
+++ b/doc/04_画面遷移図さん_b1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54EFDB-5220-48DF-A22C-1B4C30739A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC63526-88BB-4A43-B883-324B585D14F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="996" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -293,8 +293,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2881631" y="4262469"/>
-          <a:ext cx="1592157" cy="1386596"/>
+          <a:off x="2868931" y="4164679"/>
+          <a:ext cx="1579880" cy="1359079"/>
           <a:chOff x="3111487" y="1268384"/>
           <a:chExt cx="1608018" cy="1393499"/>
         </a:xfrm>
@@ -514,8 +514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3947160" y="6213488"/>
-          <a:ext cx="2070100" cy="610327"/>
+          <a:off x="3923877" y="6064898"/>
+          <a:ext cx="2054860" cy="602707"/>
           <a:chOff x="3934763" y="5192784"/>
           <a:chExt cx="2053045" cy="606154"/>
         </a:xfrm>
@@ -1090,8 +1090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4473787" y="4957800"/>
-          <a:ext cx="1497750" cy="411871"/>
+          <a:off x="4448810" y="4846887"/>
+          <a:ext cx="1490554" cy="395361"/>
           <a:chOff x="4451100" y="3991110"/>
           <a:chExt cx="1501272" cy="386155"/>
         </a:xfrm>
@@ -1290,8 +1290,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10212917" y="5863466"/>
-          <a:ext cx="6559066" cy="756960"/>
+          <a:off x="10147300" y="5728423"/>
+          <a:ext cx="6512500" cy="740026"/>
           <a:chOff x="6077230" y="5847065"/>
           <a:chExt cx="6492217" cy="720521"/>
         </a:xfrm>
@@ -1431,8 +1431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7819226" y="6317512"/>
-          <a:ext cx="1996121" cy="1366818"/>
+          <a:off x="7768003" y="6174002"/>
+          <a:ext cx="1983421" cy="1327871"/>
           <a:chOff x="9916687" y="3293957"/>
           <a:chExt cx="1983740" cy="1331763"/>
         </a:xfrm>
@@ -1563,8 +1563,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5634627" y="6341456"/>
-          <a:ext cx="1990816" cy="2363772"/>
+          <a:off x="5596104" y="6195406"/>
+          <a:ext cx="1984466" cy="2303235"/>
           <a:chOff x="6482382" y="5347604"/>
           <a:chExt cx="1979386" cy="2296885"/>
         </a:xfrm>
@@ -1818,8 +1818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10232389" y="4965200"/>
-          <a:ext cx="6221318" cy="891904"/>
+          <a:off x="10170582" y="4855557"/>
+          <a:ext cx="6172635" cy="865234"/>
           <a:chOff x="8283941" y="5043958"/>
           <a:chExt cx="6147714" cy="862522"/>
         </a:xfrm>
@@ -2195,8 +2195,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10187173" y="3014328"/>
-          <a:ext cx="4560340" cy="1982589"/>
+          <a:off x="10124096" y="2948711"/>
+          <a:ext cx="4525204" cy="1937293"/>
           <a:chOff x="10156371" y="2024404"/>
           <a:chExt cx="4522655" cy="1936904"/>
         </a:xfrm>
@@ -2554,8 +2554,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3674534" y="3348911"/>
-          <a:ext cx="7162799" cy="1138422"/>
+          <a:off x="3649981" y="3274828"/>
+          <a:ext cx="7120042" cy="1114292"/>
           <a:chOff x="3295258" y="2408699"/>
           <a:chExt cx="7703899" cy="1118477"/>
         </a:xfrm>
@@ -2834,8 +2834,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14517611" y="7943704"/>
-          <a:ext cx="2663201" cy="527391"/>
+          <a:off x="14423631" y="7759131"/>
+          <a:ext cx="2642458" cy="510881"/>
           <a:chOff x="14438539" y="6859984"/>
           <a:chExt cx="2636623" cy="514328"/>
         </a:xfrm>
@@ -3542,8 +3542,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="290831" y="4211669"/>
-          <a:ext cx="1592157" cy="1386596"/>
+          <a:off x="288291" y="4118959"/>
+          <a:ext cx="1590040" cy="1351459"/>
           <a:chOff x="3111487" y="1268384"/>
           <a:chExt cx="1608018" cy="1393499"/>
         </a:xfrm>
@@ -3935,6 +3935,277 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4595</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>55</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>69365</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A91982-66A1-49A6-89E7-456761488321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4284495" y="1816155"/>
+          <a:ext cx="1283970" cy="622245"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑪チュートリアル動画</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>36980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79EA29D-AC9D-4572-EC0C-4D987051AF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4926480" y="2435860"/>
+          <a:ext cx="1120" cy="980440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E236165-351E-2DA9-7121-F24C0CB864EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5564655" y="2077720"/>
+          <a:ext cx="3688565" cy="2202180"/>
+          <a:chOff x="5565925" y="2080260"/>
+          <a:chExt cx="3689835" cy="2197100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BF1631-C3CB-4136-982E-06D95AFBDA0B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="2" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="5565925" y="2111602"/>
+            <a:ext cx="3689835" cy="13136"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="23" name="直線コネクタ 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD231937-4710-10B5-E2A3-D4D5191DF73F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9248140" y="2080260"/>
+            <a:ext cx="7620" cy="2197100"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6213662-F9D3-45F4-9E9D-6011EA4D486A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9247020" y="3270250"/>
+            <a:ext cx="1120" cy="991870"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4610,8 +4881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_画面遷移図さん_b1.xlsx
+++ b/doc/04_画面遷移図さん_b1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC63526-88BB-4A43-B883-324B585D14F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E5AA6B-3855-42C1-B2AC-F4CBC0ADA196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="996" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1408,15 +1408,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>442643</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>126262</xdr:rowOff>
+      <xdr:colOff>443913</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>597264</xdr:colOff>
+      <xdr:colOff>592184</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>138413</xdr:rowOff>
+      <xdr:rowOff>139684</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1431,10 +1431,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7768003" y="6174002"/>
-          <a:ext cx="1983421" cy="1327871"/>
-          <a:chOff x="9916687" y="3293957"/>
-          <a:chExt cx="1983740" cy="1331763"/>
+          <a:off x="7769273" y="6210301"/>
+          <a:ext cx="1983421" cy="1292843"/>
+          <a:chOff x="9916687" y="3327911"/>
+          <a:chExt cx="1983740" cy="1297809"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1504,9 +1504,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="10541092" y="3293957"/>
-            <a:ext cx="367466" cy="794494"/>
+          <a:xfrm flipV="1">
+            <a:off x="10908558" y="3327911"/>
+            <a:ext cx="2660" cy="760539"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2101,6 +2101,23 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
             <a:t>⑫目標達成画面</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>結果画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3519,15 +3536,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>290831</xdr:colOff>
+      <xdr:colOff>288291</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52419</xdr:rowOff>
+      <xdr:rowOff>58912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>941071</xdr:colOff>
+      <xdr:colOff>938531</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>84348</xdr:rowOff>
+      <xdr:rowOff>144150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3542,10 +3559,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="288291" y="4118959"/>
-          <a:ext cx="1590040" cy="1351459"/>
-          <a:chOff x="3111487" y="1268384"/>
-          <a:chExt cx="1608018" cy="1393499"/>
+          <a:off x="292101" y="4126722"/>
+          <a:ext cx="1583690" cy="1400958"/>
+          <a:chOff x="3111487" y="1272460"/>
+          <a:chExt cx="1608018" cy="1449776"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3614,7 +3631,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3390900" y="1268384"/>
+            <a:off x="3403743" y="1373144"/>
             <a:ext cx="1062567" cy="1349092"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -3662,7 +3679,23 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>か否か</a:t>
+              <a:t>か否か、</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>死んでるか</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>否か</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -3812,15 +3845,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152664</xdr:colOff>
+      <xdr:colOff>162824</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>28848</xdr:rowOff>
+      <xdr:rowOff>27578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>166381</xdr:colOff>
+      <xdr:colOff>167651</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52419</xdr:rowOff>
+      <xdr:rowOff>156558</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3838,8 +3871,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1092464" y="3597548"/>
-          <a:ext cx="13717" cy="518871"/>
+          <a:off x="1102624" y="3596278"/>
+          <a:ext cx="4827" cy="624280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3873,13 +3906,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>610871</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>67072</xdr:rowOff>
+      <xdr:rowOff>65802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3894,8 +3927,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="610871" y="5919655"/>
-          <a:ext cx="978746" cy="296995"/>
+          <a:off x="610871" y="5780802"/>
+          <a:ext cx="976629" cy="734298"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3932,6 +3965,21 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>過ぎてる</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>or</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>死んでる</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3940,15 +3988,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>4595</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>55</xdr:rowOff>
+      <xdr:colOff>5865</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>69365</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>68095</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3963,16 +4011,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4284495" y="1816155"/>
-          <a:ext cx="1283970" cy="622245"/>
+          <a:off x="4285765" y="1993955"/>
+          <a:ext cx="1281430" cy="619705"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -4006,34 +4054,85 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>36980</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7135</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158778</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79EA29D-AC9D-4572-EC0C-4D987051AF47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD231937-4710-10B5-E2A3-D4D5191DF73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
+          <a:stCxn id="2" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1648460" y="2298700"/>
+          <a:ext cx="2638575" cy="6378"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>721365</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>721365</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6213662-F9D3-45F4-9E9D-6011EA4D486A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4926480" y="2435860"/>
-          <a:ext cx="1120" cy="980440"/>
+          <a:off x="1661165" y="2286000"/>
+          <a:ext cx="0" cy="802614"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4061,151 +4160,55 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66825</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>436880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440690</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="グループ化 30">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E236165-351E-2DA9-7121-F24C0CB864EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D287FDFF-B333-470C-B932-1ED7B1FEB048}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5564655" y="2077720"/>
-          <a:ext cx="3688565" cy="2202180"/>
-          <a:chOff x="5565925" y="2080260"/>
-          <a:chExt cx="3689835" cy="2197100"/>
+          <a:off x="5326380" y="2616200"/>
+          <a:ext cx="3810" cy="664210"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BF1631-C3CB-4136-982E-06D95AFBDA0B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:endCxn id="2" idx="3"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="5565925" y="2111602"/>
-            <a:ext cx="3689835" cy="13136"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="直線コネクタ 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD231937-4710-10B5-E2A3-D4D5191DF73F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9248140" y="2080260"/>
-            <a:ext cx="7620" cy="2197100"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050"/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6213662-F9D3-45F4-9E9D-6011EA4D486A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9247020" y="3270250"/>
-            <a:ext cx="1120" cy="991870"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="28575">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4881,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4890,6 +4893,7 @@
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="3" width="14.6328125" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -5001,13 +5005,17 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">

--- a/doc/04_画面遷移図さん_b1.xlsx
+++ b/doc/04_画面遷移図さん_b1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E5AA6B-3855-42C1-B2AC-F4CBC0ADA196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640F8F70-A798-4770-8883-570608EA6E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="996" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -99,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +160,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -175,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -211,13 +220,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,13 +328,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -269,16 +385,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>913131</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>103219</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8891</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>166371</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>135148</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>370841</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>164358</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -293,8 +409,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2868931" y="4164679"/>
-          <a:ext cx="1579880" cy="1359079"/>
+          <a:off x="4290061" y="4700619"/>
+          <a:ext cx="1577340" cy="1359079"/>
           <a:chOff x="3111487" y="1268384"/>
           <a:chExt cx="1608018" cy="1393499"/>
         </a:xfrm>
@@ -415,16 +531,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>436455</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48365</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>138005</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400472</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114722</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38630</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -439,8 +555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5971538" y="4376948"/>
-          <a:ext cx="4260851" cy="1985435"/>
+          <a:off x="8685105" y="4991205"/>
+          <a:ext cx="4243917" cy="1930825"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -473,7 +589,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>④トップ画面</a:t>
+            <a:t>④カレンダー画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
         </a:p>
@@ -481,7 +597,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>（カレンダー）</a:t>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>calendar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -490,16 +614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>952077</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>22238</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>52718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>482177</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>124565</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190077</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>162665</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -514,8 +638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3923877" y="6064898"/>
-          <a:ext cx="2054860" cy="602707"/>
+          <a:off x="6705177" y="6773558"/>
+          <a:ext cx="2032000" cy="605247"/>
           <a:chOff x="3934763" y="5192784"/>
           <a:chExt cx="2053045" cy="606154"/>
         </a:xfrm>
@@ -620,16 +744,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>941071</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>70362</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>913131</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121162</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10161</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>150449</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -646,9 +770,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1880871" y="4794762"/>
-          <a:ext cx="1000760" cy="50800"/>
+        <a:xfrm flipV="1">
+          <a:off x="2235201" y="5382146"/>
+          <a:ext cx="2054860" cy="703"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -680,15 +804,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>356987</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22109</xdr:rowOff>
+      <xdr:colOff>630037</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>915574</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28848</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>168814</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17418</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -703,8 +827,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="356987" y="3095509"/>
-          <a:ext cx="1498387" cy="502039"/>
+          <a:off x="630037" y="3266959"/>
+          <a:ext cx="1494577" cy="496959"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -739,6 +863,15 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>①ログイン画面</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(login)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -747,15 +880,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>236403</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>139999</xdr:rowOff>
+      <xdr:colOff>734243</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>248006</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>107690</xdr:rowOff>
+      <xdr:colOff>744576</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -770,8 +903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2204903" y="3048299"/>
-          <a:ext cx="1040303" cy="462991"/>
+          <a:off x="2690043" y="3309919"/>
+          <a:ext cx="1026333" cy="578821"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -806,6 +939,15 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>②新規登録</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(register)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -814,15 +956,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>248006</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>41295</xdr:rowOff>
+      <xdr:colOff>748386</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>464168</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>69885</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175878</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -840,8 +982,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3245206" y="3279795"/>
-          <a:ext cx="216162" cy="28590"/>
+          <a:off x="3720186" y="3599965"/>
+          <a:ext cx="735592" cy="111610"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -872,16 +1014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>464168</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>136698</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>178418</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>431630</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>3071</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307340</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -896,8 +1038,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3461368" y="3044998"/>
-          <a:ext cx="1275562" cy="526773"/>
+          <a:off x="4458318" y="3352800"/>
+          <a:ext cx="1348122" cy="718820"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -930,16 +1072,17 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>③登録完了の</a:t>
+            <a:t>③登録完了画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(result)</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -947,16 +1090,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>431630</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>69885</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>255922</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>148337</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>593679</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>51276</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -974,8 +1117,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4736930" y="3308385"/>
-          <a:ext cx="433892" cy="243552"/>
+          <a:off x="5806440" y="3711575"/>
+          <a:ext cx="2115139" cy="416401"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1006,16 +1149,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>915574</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>41295</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>172624</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>96599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>236403</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>108029</xdr:rowOff>
+      <xdr:colOff>739323</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1032,9 +1175,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1855374" y="3279795"/>
-          <a:ext cx="349529" cy="66734"/>
+        <a:xfrm>
+          <a:off x="2124614" y="3515439"/>
+          <a:ext cx="567969" cy="84526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1066,16 +1209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>166370</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121217</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>372111</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>74291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>436454</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>25088</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136735</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60005</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1090,10 +1233,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4448810" y="4846887"/>
-          <a:ext cx="1490554" cy="395361"/>
-          <a:chOff x="4451100" y="3991110"/>
-          <a:chExt cx="1501272" cy="386155"/>
+          <a:off x="5869941" y="5306691"/>
+          <a:ext cx="2811354" cy="649924"/>
+          <a:chOff x="5764851" y="4464534"/>
+          <a:chExt cx="3080463" cy="822311"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1112,8 +1255,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4451100" y="3991110"/>
-            <a:ext cx="1501272" cy="386155"/>
+            <a:off x="5764851" y="4554097"/>
+            <a:ext cx="3080463" cy="732748"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1153,8 +1296,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4614078" y="4018361"/>
-            <a:ext cx="924062" cy="258438"/>
+            <a:off x="5977096" y="4464534"/>
+            <a:ext cx="1074371" cy="403735"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1199,83 +1342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>541624</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33075</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3144</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>33076</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="252" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AEC74A-6520-4250-8920-493095D172A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6659395" y="1938075"/>
-          <a:ext cx="1290320" cy="489858"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>⑪卵誕生の画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>10883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>187900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>90509</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>58360</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1290,10 +1366,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10147300" y="5728423"/>
-          <a:ext cx="6512500" cy="740026"/>
-          <a:chOff x="6077230" y="5847065"/>
-          <a:chExt cx="6492217" cy="720521"/>
+          <a:off x="12928600" y="6525258"/>
+          <a:ext cx="6043870" cy="1445261"/>
+          <a:chOff x="6550546" y="5415763"/>
+          <a:chExt cx="6018901" cy="1445421"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1310,7 +1386,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10590787" y="6041746"/>
-            <a:ext cx="1978660" cy="525840"/>
+            <a:ext cx="1978660" cy="819438"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1373,8 +1449,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="6077230" y="5847065"/>
-            <a:ext cx="4513557" cy="457601"/>
+            <a:off x="6550546" y="5415763"/>
+            <a:ext cx="4040241" cy="1035701"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1407,16 +1483,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>443913</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151813</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>592184</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>139684</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291194</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162544</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1431,8 +1507,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7769273" y="6210301"/>
-          <a:ext cx="1983421" cy="1292843"/>
+          <a:off x="10527713" y="6921501"/>
+          <a:ext cx="1965641" cy="1282683"/>
           <a:chOff x="9916687" y="3327911"/>
           <a:chExt cx="1983740" cy="1297809"/>
         </a:xfrm>
@@ -1486,6 +1562,15 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>⑨ランキングページ</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(ranking)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1539,16 +1624,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>99544</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>150206</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444984</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>248860</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>143311</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596840</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>97592</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1563,10 +1648,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5596104" y="6195406"/>
-          <a:ext cx="1984466" cy="2303235"/>
-          <a:chOff x="6482382" y="5347604"/>
-          <a:chExt cx="1979386" cy="2296885"/>
+          <a:off x="8379944" y="6883401"/>
+          <a:ext cx="1980656" cy="2743001"/>
+          <a:chOff x="6482382" y="4931499"/>
+          <a:chExt cx="1979386" cy="2712990"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1582,8 +1667,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6483108" y="6125509"/>
-            <a:ext cx="1978660" cy="528380"/>
+            <a:off x="6483108" y="5781976"/>
+            <a:ext cx="1978660" cy="871912"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1642,6 +1727,30 @@
               </a:rPr>
               <a:t>支出入力ページ</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>(payment)</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
@@ -1662,8 +1771,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="7471168" y="5347604"/>
-            <a:ext cx="0" cy="777905"/>
+            <a:off x="7472439" y="4931499"/>
+            <a:ext cx="3853" cy="850478"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1738,8 +1847,17 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>③登録完了の画面</a:t>
+              <a:t>③登録完了画面</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(result)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1760,8 +1878,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="7474887" y="6656429"/>
-            <a:ext cx="1361" cy="459680"/>
+            <a:off x="7471077" y="6653889"/>
+            <a:ext cx="1361" cy="462221"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1794,16 +1912,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400472</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>128617</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114722</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>483457</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>4521</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>176118</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>58422</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1818,10 +1936,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10170582" y="4855557"/>
-          <a:ext cx="6172635" cy="865234"/>
-          <a:chOff x="8283941" y="5043958"/>
-          <a:chExt cx="6147714" cy="862522"/>
+          <a:off x="12929022" y="5453379"/>
+          <a:ext cx="6154856" cy="996953"/>
+          <a:chOff x="8287738" y="4934573"/>
+          <a:chExt cx="6143917" cy="978795"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1838,7 +1956,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="9877179" y="5285159"/>
-            <a:ext cx="1978660" cy="532190"/>
+            <a:ext cx="1978660" cy="628209"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1873,6 +1991,15 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>⑦達成状況</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(achievement)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1893,8 +2020,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="8283941" y="5435100"/>
-            <a:ext cx="1593238" cy="116155"/>
+            <a:off x="8287738" y="5433022"/>
+            <a:ext cx="1589441" cy="166242"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1935,8 +2062,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12452995" y="5043958"/>
-            <a:ext cx="1978660" cy="862522"/>
+            <a:off x="12452995" y="4934573"/>
+            <a:ext cx="1978660" cy="971906"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -1985,8 +2112,17 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>③登録完了の画面</a:t>
+              <a:t>③登録完了画面</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(result)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2007,8 +2143,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="11855839" y="5475220"/>
-            <a:ext cx="597156" cy="76036"/>
+            <a:off x="11855840" y="5420528"/>
+            <a:ext cx="597155" cy="178736"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2041,16 +2177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>260139</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>140875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>329989</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>78645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>388860</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28773</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>442200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>137993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2065,8 +2201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11894246" y="7057839"/>
-          <a:ext cx="2578007" cy="1717303"/>
+          <a:off x="13144289" y="8117745"/>
+          <a:ext cx="2550611" cy="1710348"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2107,15 +2243,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>結果画面</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>)</a:t>
+            <a:t>(resultGoals)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
         </a:p>
@@ -2126,15 +2254,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>356987</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>108030</xdr:rowOff>
+      <xdr:colOff>633847</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>96600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>575990</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>78513</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>402678</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2153,13 +2281,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="5948597" y="-2245080"/>
-          <a:ext cx="4923483" cy="16106703"/>
+          <a:off x="6037722" y="-1892245"/>
+          <a:ext cx="6034961" cy="16850331"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -23215"/>
-            <a:gd name="adj2" fmla="val 101419"/>
+            <a:gd name="adj1" fmla="val -17256"/>
+            <a:gd name="adj2" fmla="val 101357"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="57150">
@@ -2188,16 +2316,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>355256</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>40411</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>111415</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>4930</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>160334</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>249980</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>62547</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2212,10 +2340,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10124096" y="2948711"/>
-          <a:ext cx="4525204" cy="1937293"/>
-          <a:chOff x="10156371" y="2024404"/>
-          <a:chExt cx="4522655" cy="1936904"/>
+          <a:off x="12925715" y="3271523"/>
+          <a:ext cx="4409575" cy="2351084"/>
+          <a:chOff x="10156370" y="1608142"/>
+          <a:chExt cx="4404850" cy="2353167"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -2231,10 +2359,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="10156371" y="2024404"/>
-            <a:ext cx="4522655" cy="1936904"/>
-            <a:chOff x="10156371" y="2029484"/>
-            <a:chExt cx="4521328" cy="1936904"/>
+            <a:off x="10156370" y="1608142"/>
+            <a:ext cx="4404850" cy="2353167"/>
+            <a:chOff x="10156371" y="1613222"/>
+            <a:chExt cx="4403558" cy="2353167"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -2250,8 +2378,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10790099" y="3388599"/>
-              <a:ext cx="1599777" cy="577789"/>
+              <a:off x="10790099" y="3273700"/>
+              <a:ext cx="1599777" cy="692689"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -2286,6 +2414,15 @@
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
                 <a:t>⑥キャラの部屋ページ</a:t>
               </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>(room)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2302,14 +2439,14 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13301614" y="2943553"/>
-              <a:ext cx="1182372" cy="483084"/>
+              <a:off x="13377557" y="2813161"/>
+              <a:ext cx="1182372" cy="704740"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
             </a:prstGeom>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="40000"/>
                 <a:lumOff val="60000"/>
               </a:schemeClr>
@@ -2365,8 +2502,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipH="1">
-              <a:off x="10156371" y="3704164"/>
-              <a:ext cx="631188" cy="182214"/>
+              <a:off x="10156371" y="3620044"/>
+              <a:ext cx="633728" cy="266334"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -2409,8 +2546,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipH="1">
-              <a:off x="12057321" y="2392945"/>
-              <a:ext cx="1764186" cy="1003179"/>
+              <a:off x="12084796" y="2175972"/>
+              <a:ext cx="1496196" cy="1080812"/>
             </a:xfrm>
             <a:prstGeom prst="straightConnector1">
               <a:avLst/>
@@ -2450,8 +2587,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12965315" y="2029484"/>
-              <a:ext cx="1712384" cy="363461"/>
+              <a:off x="12724800" y="1613222"/>
+              <a:ext cx="1712384" cy="562750"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
               <a:avLst/>
@@ -2503,14 +2640,14 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10710080" y="2096465"/>
-            <a:ext cx="1722809" cy="372351"/>
+            <a:off x="10722863" y="2045311"/>
+            <a:ext cx="1722809" cy="543700"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
           <a:solidFill>
-            <a:schemeClr val="accent1">
+            <a:schemeClr val="tx2">
               <a:lumMod val="40000"/>
               <a:lumOff val="60000"/>
             </a:schemeClr>
@@ -2547,16 +2684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>679451</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>36328</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>193397</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>391583</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2571,10 +2708,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3649981" y="3274828"/>
-          <a:ext cx="7120042" cy="1114292"/>
-          <a:chOff x="3295258" y="2408699"/>
-          <a:chExt cx="7703899" cy="1118477"/>
+          <a:off x="5082897" y="3679192"/>
+          <a:ext cx="6946543" cy="1299209"/>
+          <a:chOff x="1826979" y="2105225"/>
+          <a:chExt cx="7530739" cy="1289659"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2593,8 +2730,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="3295258" y="2688038"/>
-            <a:ext cx="1617545" cy="624223"/>
+            <a:off x="1826979" y="2550059"/>
+            <a:ext cx="3085824" cy="575332"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2634,7 +2771,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3634163" y="2887102"/>
+            <a:off x="2038121" y="2811183"/>
             <a:ext cx="946592" cy="368329"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2688,8 +2825,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4912803" y="2408699"/>
-            <a:ext cx="1302758" cy="558677"/>
+            <a:off x="4912803" y="2105225"/>
+            <a:ext cx="1302758" cy="889669"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2732,6 +2869,15 @@
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
               <a:t>画面</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(setGoals)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2750,9 +2896,9 @@
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="6215561" y="2652234"/>
-            <a:ext cx="329171" cy="35804"/>
+          <a:xfrm>
+            <a:off x="6215560" y="2550060"/>
+            <a:ext cx="2436252" cy="17639"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2789,13 +2935,13 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="252" idx="3"/>
+            <a:stCxn id="252" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7940558" y="2655054"/>
-            <a:ext cx="3058599" cy="872122"/>
+            <a:off x="9352864" y="2909897"/>
+            <a:ext cx="4854" cy="484987"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2827,16 +2973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>388861</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>59121</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>439658</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>21021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>596729</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>78512</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>596846</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2851,10 +2997,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14423631" y="7759131"/>
-          <a:ext cx="2642458" cy="510881"/>
-          <a:chOff x="14438539" y="6859984"/>
-          <a:chExt cx="2636623" cy="514328"/>
+          <a:off x="15696168" y="8724331"/>
+          <a:ext cx="2589238" cy="823529"/>
+          <a:chOff x="13811339" y="6786204"/>
+          <a:chExt cx="2019060" cy="794027"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -2873,8 +3019,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="14438539" y="6968004"/>
-            <a:ext cx="1380220" cy="149145"/>
+            <a:off x="13811339" y="7026483"/>
+            <a:ext cx="762657" cy="156735"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2914,8 +3060,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="15818759" y="6859984"/>
-            <a:ext cx="1256403" cy="514328"/>
+            <a:off x="14573996" y="6786204"/>
+            <a:ext cx="1256403" cy="794027"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst/>
@@ -2948,16 +3094,17 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>③登録完了の</a:t>
+              <a:t>③登録完了画面</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>画面</a:t>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>(result)</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2967,15 +3114,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>165323</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22109</xdr:rowOff>
+      <xdr:colOff>441336</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>111548</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48365</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>432434</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>94085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2993,12 +3140,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3998808" y="273791"/>
-          <a:ext cx="1211589" cy="6994725"/>
+          <a:off x="5228167" y="-583882"/>
+          <a:ext cx="1726786" cy="9428468"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 118868"/>
+            <a:gd name="adj1" fmla="val 113238"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -3027,16 +3174,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>206957</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161473</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>62170</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142650</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>559004</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>18640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3048,13 +3195,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
           <a:endCxn id="128" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16739636" y="6080580"/>
-          <a:ext cx="1039457" cy="147487"/>
+        <a:xfrm>
+          <a:off x="18972470" y="7560846"/>
+          <a:ext cx="1106434" cy="1594"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3085,245 +3233,326 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28365</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>147199</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>556189</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>402289</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>35319</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>342599</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>63259</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 1">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="グループ化 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68628DE8-E360-4326-9159-C6BE481AD4B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05270DEA-EEA5-750E-C625-D6368D34DB42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17840115" y="6846449"/>
-          <a:ext cx="1601591" cy="565453"/>
+          <a:off x="20073549" y="6360080"/>
+          <a:ext cx="1617750" cy="2400139"/>
+          <a:chOff x="17713889" y="4852590"/>
+          <a:chExt cx="1602510" cy="2396329"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>⑧検索画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68628DE8-E360-4326-9159-C6BE481AD4B1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17716925" y="6699129"/>
+            <a:ext cx="1599474" cy="549790"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>⑧検索画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93740F65-7E9D-4296-BCBE-7F3306FB22A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17713889" y="4852590"/>
+            <a:ext cx="1599948" cy="552330"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>⑧投稿画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="角丸四角形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D060FD-33AE-49B0-9002-F809B1889E85}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17716682" y="5782613"/>
+            <a:ext cx="1599474" cy="542109"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>⑧</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>TL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C39881-1CAF-45D0-974B-4907D2F28BEE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="63" idx="2"/>
+            <a:endCxn id="128" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18513864" y="5404920"/>
+            <a:ext cx="2556" cy="377693"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82966A5-AE21-47D7-BE58-4BF0C58401D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:cxnSpLocks/>
+            <a:stCxn id="49" idx="0"/>
+            <a:endCxn id="128" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="18516420" y="6324722"/>
+            <a:ext cx="0" cy="374407"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>18979</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>115490</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>320410</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>399727</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>6150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93740F65-7E9D-4296-BCBE-7F3306FB22A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17830729" y="4952073"/>
-          <a:ext cx="1608415" cy="567994"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>⑧投稿画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52373</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>402046</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104262</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D060FD-33AE-49B0-9002-F809B1889E85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17779093" y="5805171"/>
-          <a:ext cx="1604917" cy="550817"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>⑧</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>TL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>209354</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>6150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>211910</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>52373</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>326551</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30871</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C39881-1CAF-45D0-974B-4907D2F28BEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9F3C52-360A-45B4-81DC-EE9B2BB62669}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="63" idx="2"/>
-          <a:endCxn id="128" idx="0"/>
+          <a:stCxn id="163" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18634937" y="5520067"/>
-          <a:ext cx="2556" cy="384889"/>
+          <a:off x="14353910" y="4254064"/>
+          <a:ext cx="6141" cy="679007"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3355,136 +3584,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>211910</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>104262</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523037</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>215328</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>147199</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82966A5-AE21-47D7-BE58-4BF0C58401D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="49" idx="0"/>
-          <a:endCxn id="128" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="18637493" y="6464845"/>
-          <a:ext cx="3418" cy="381604"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476433</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>156639</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>554495</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61212</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9F3C52-360A-45B4-81DC-EE9B2BB62669}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="163" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11536016" y="3469222"/>
-          <a:ext cx="78062" cy="920573"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152460</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>40272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>455238</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>37834</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>294576</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44169</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3502,8 +3611,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12363338" y="4056218"/>
-          <a:ext cx="912035" cy="486684"/>
+          <a:off x="15166137" y="4822458"/>
+          <a:ext cx="990739" cy="454111"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3536,15 +3645,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>288291</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>58912</xdr:rowOff>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>938531</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>144150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>55250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3559,8 +3668,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="292101" y="4126722"/>
-          <a:ext cx="1583690" cy="1400958"/>
+          <a:off x="647701" y="4708382"/>
+          <a:ext cx="1590040" cy="1408578"/>
           <a:chOff x="3111487" y="1272460"/>
           <a:chExt cx="1608018" cy="1449776"/>
         </a:xfrm>
@@ -3706,15 +3815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>147262</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>84347</xdr:rowOff>
+      <xdr:colOff>520934</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>55249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>324501</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28772</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>383556</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>135452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3727,18 +3836,18 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="70" idx="2"/>
+          <a:stCxn id="71" idx="2"/>
           <a:endCxn id="141" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5498639" y="1090530"/>
-          <a:ext cx="3270615" cy="12098608"/>
+          <a:off x="6082693" y="1491190"/>
+          <a:ext cx="3712403" cy="12956322"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 111613"/>
+            <a:gd name="adj1" fmla="val 106158"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -3768,15 +3877,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>49028</xdr:rowOff>
+      <xdr:colOff>654051</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3791,8 +3900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2000251" y="4443228"/>
-          <a:ext cx="641349" cy="611372"/>
+          <a:off x="2609851" y="5093468"/>
+          <a:ext cx="641349" cy="606292"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3845,15 +3954,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>162824</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>27578</xdr:rowOff>
+      <xdr:colOff>441336</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>167651</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156558</xdr:rowOff>
+      <xdr:colOff>501651</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138922</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3866,13 +3975,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="71" idx="0"/>
+          <a:endCxn id="70" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1102624" y="3596278"/>
-          <a:ext cx="4827" cy="624280"/>
+        <a:xfrm>
+          <a:off x="1381136" y="3767728"/>
+          <a:ext cx="60315" cy="943194"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3903,16 +4012,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>610871</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>65802</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>163831</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3927,8 +4036,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="610871" y="5780802"/>
-          <a:ext cx="976629" cy="734298"/>
+          <a:off x="1103631" y="6375162"/>
+          <a:ext cx="976629" cy="739378"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3987,16 +4096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5865</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12755</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383540</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>68095</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>202715</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4011,8 +4120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4285765" y="1993955"/>
-          <a:ext cx="1281430" cy="619705"/>
+          <a:off x="7711440" y="1968501"/>
+          <a:ext cx="1647975" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4054,85 +4163,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>592688</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7135</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158778</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599198</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97792</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD231937-4710-10B5-E2A3-D4D5191DF73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D287FDFF-B333-470C-B932-1ED7B1FEB048}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="1"/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="248" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1648460" y="2298700"/>
-          <a:ext cx="2638575" cy="6378"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>721365</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>721365</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15214</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6213662-F9D3-45F4-9E9D-6011EA4D486A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1661165" y="2286000"/>
-          <a:ext cx="0" cy="802614"/>
+        <a:xfrm flipH="1">
+          <a:off x="8530188" y="2771141"/>
+          <a:ext cx="6510" cy="908051"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4160,23 +4219,156 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>436880</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>389224</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>440690</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>462884</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AEC74A-6520-4250-8920-493095D172A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11374724" y="3799841"/>
+          <a:ext cx="1292860" cy="689666"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>⑪卵誕生の画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(egg)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383540</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+        <xdr:cNvPr id="135" name="直線コネクタ 134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D287FDFF-B333-470C-B932-1ED7B1FEB048}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF891D96-8BF7-09AD-89CE-F7F65808D9F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1917700" y="2368551"/>
+          <a:ext cx="5793740" cy="6349"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直線矢印コネクタ 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76433540-AE16-4DD1-1C97-0B449FC0D19B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4184,8 +4376,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5326380" y="2616200"/>
-          <a:ext cx="3810" cy="664210"/>
+          <a:off x="1917700" y="2374900"/>
+          <a:ext cx="0" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4882,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AB55" sqref="AB55"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC62" sqref="AC62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4910,7 +5102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4923,91 +5115,120 @@
       <c r="D2" s="5">
         <v>45084</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>45085</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="5">
         <v>45086</v>
       </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
@@ -5037,24 +5258,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-    </row>
     <row r="61" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -5083,21 +5286,9 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -5109,10 +5300,28 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H2:V4"/>
-    <mergeCell ref="B59:G60"/>
+    <mergeCell ref="B67:G68"/>
+    <mergeCell ref="G5:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_画面遷移図さん_b1.xlsx
+++ b/doc/04_画面遷移図さん_b1.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640F8F70-A798-4770-8883-570608EA6E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653BEE4D-2407-4EFE-97E1-AAA74CD96043}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="996" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -328,16 +339,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +358,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,8 +420,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4290061" y="4700619"/>
-          <a:ext cx="1577340" cy="1359079"/>
+          <a:off x="4308748" y="4643650"/>
+          <a:ext cx="1577522" cy="1344565"/>
           <a:chOff x="3111487" y="1268384"/>
           <a:chExt cx="1608018" cy="1393499"/>
         </a:xfrm>
@@ -638,8 +649,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6705177" y="6773558"/>
-          <a:ext cx="2032000" cy="605247"/>
+          <a:off x="6715881" y="6693004"/>
+          <a:ext cx="2028553" cy="599804"/>
           <a:chOff x="3934763" y="5192784"/>
           <a:chExt cx="2053045" cy="606154"/>
         </a:xfrm>
@@ -1233,8 +1244,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5869941" y="5306691"/>
-          <a:ext cx="2811354" cy="649924"/>
+          <a:off x="5887540" y="5245005"/>
+          <a:ext cx="2803552" cy="638857"/>
           <a:chOff x="5764851" y="4464534"/>
           <a:chExt cx="3080463" cy="822311"/>
         </a:xfrm>
@@ -1366,8 +1377,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12928600" y="6525258"/>
-          <a:ext cx="6043870" cy="1445261"/>
+          <a:off x="12923157" y="6453412"/>
+          <a:ext cx="6021917" cy="1428933"/>
           <a:chOff x="6550546" y="5415763"/>
           <a:chExt cx="6018901" cy="1445421"/>
         </a:xfrm>
@@ -1507,8 +1518,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10527713" y="6921501"/>
-          <a:ext cx="1965641" cy="1282683"/>
+          <a:off x="10529527" y="6841672"/>
+          <a:ext cx="1962738" cy="1267443"/>
           <a:chOff x="9916687" y="3327911"/>
           <a:chExt cx="1983740" cy="1297809"/>
         </a:xfrm>
@@ -1648,8 +1659,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8379944" y="6883401"/>
-          <a:ext cx="1980656" cy="2743001"/>
+          <a:off x="8391555" y="6802847"/>
+          <a:ext cx="1975214" cy="2710888"/>
           <a:chOff x="6482382" y="4931499"/>
           <a:chExt cx="1979386" cy="2712990"/>
         </a:xfrm>
@@ -1936,8 +1947,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12929022" y="5453379"/>
-          <a:ext cx="6154856" cy="996953"/>
+          <a:off x="12923579" y="5387339"/>
+          <a:ext cx="6139253" cy="984797"/>
           <a:chOff x="8287738" y="4934573"/>
           <a:chExt cx="6143917" cy="978795"/>
         </a:xfrm>
@@ -2340,8 +2351,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12925715" y="3271523"/>
-          <a:ext cx="4409575" cy="2351084"/>
+          <a:off x="12920272" y="3234149"/>
+          <a:ext cx="4393065" cy="2325684"/>
           <a:chOff x="10156370" y="1608142"/>
           <a:chExt cx="4404850" cy="2353167"/>
         </a:xfrm>
@@ -2708,8 +2719,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5082897" y="3679192"/>
-          <a:ext cx="6946543" cy="1299209"/>
+          <a:off x="5101040" y="3638189"/>
+          <a:ext cx="6924046" cy="1282155"/>
           <a:chOff x="1826979" y="2105225"/>
           <a:chExt cx="7530739" cy="1289659"/>
         </a:xfrm>
@@ -2997,8 +3008,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15696168" y="8724331"/>
-          <a:ext cx="2589238" cy="823529"/>
+          <a:off x="15679658" y="8620735"/>
+          <a:ext cx="2588331" cy="820808"/>
           <a:chOff x="13811339" y="6786204"/>
           <a:chExt cx="2019060" cy="794027"/>
         </a:xfrm>
@@ -3257,8 +3268,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20073549" y="6360080"/>
-          <a:ext cx="1617750" cy="2400139"/>
+          <a:off x="20050689" y="6283699"/>
+          <a:ext cx="1609767" cy="2379274"/>
           <a:chOff x="17713889" y="4852590"/>
           <a:chExt cx="1602510" cy="2396329"/>
         </a:xfrm>
@@ -3668,8 +3679,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="647701" y="4708382"/>
-          <a:ext cx="1590040" cy="1408578"/>
+          <a:off x="647701" y="4656493"/>
+          <a:ext cx="1600200" cy="1385900"/>
           <a:chOff x="3111487" y="1272460"/>
           <a:chExt cx="1608018" cy="1449776"/>
         </a:xfrm>
@@ -4403,6 +4414,143 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>345197</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>135346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495062</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10174</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4237F49-8839-457E-B9BA-03135B9B5CCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18016340" y="4489632"/>
+          <a:ext cx="1973222" cy="527971"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③登録完了画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(result)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>249980</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>345197</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87472</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BCD4FA-B47C-4BFD-8885-598C878D9181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17313337" y="4753618"/>
+          <a:ext cx="703003" cy="14711"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5076,8 +5224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC62" sqref="AC62"/>
+    <sheetView tabSelected="1" topLeftCell="H21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5115,21 +5263,21 @@
       <c r="D2" s="5">
         <v>45084</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -5138,21 +5286,21 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -5161,21 +5309,21 @@
       <c r="D4" s="5">
         <v>45085</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
@@ -5184,17 +5332,17 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
@@ -5203,14 +5351,14 @@
       <c r="D6" s="5">
         <v>45086</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5301,22 +5449,22 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/04_画面遷移図さん_b1.xlsx
+++ b/doc/04_画面遷移図さん_b1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653BEE4D-2407-4EFE-97E1-AAA74CD96043}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21A5C4-AB20-4619-950E-17CD8337AD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="996" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -103,6 +103,11 @@
   </si>
   <si>
     <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -317,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +349,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,6 +404,66 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>592688</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>98159</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1947" name="コネクタ: カギ線 1946">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA845B3-6B6E-44E2-97EB-CD6B98128AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="1945" idx="3"/>
+          <a:endCxn id="248" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6081000" y="4575449"/>
+          <a:ext cx="2449188" cy="4387310"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>8891</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -420,8 +488,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4308748" y="4643650"/>
-          <a:ext cx="1577522" cy="1344565"/>
+          <a:off x="4290061" y="4865719"/>
+          <a:ext cx="1577340" cy="1359079"/>
           <a:chOff x="3111487" y="1268384"/>
           <a:chExt cx="1608018" cy="1393499"/>
         </a:xfrm>
@@ -543,9 +611,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>138005</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>89005</xdr:rowOff>
+      <xdr:rowOff>91545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
@@ -566,8 +634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8685105" y="4991205"/>
-          <a:ext cx="4243917" cy="1930825"/>
+          <a:off x="8953500" y="4993745"/>
+          <a:ext cx="3975522" cy="1928285"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -625,16 +693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>52718</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609177</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190077</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>162665</xdr:rowOff>
+      <xdr:rowOff>55979</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -649,10 +717,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6715881" y="6693004"/>
-          <a:ext cx="2028553" cy="599804"/>
-          <a:chOff x="3934763" y="5192784"/>
-          <a:chExt cx="2053045" cy="606154"/>
+          <a:off x="6108277" y="6644637"/>
+          <a:ext cx="2842683" cy="793852"/>
+          <a:chOff x="3934763" y="5010133"/>
+          <a:chExt cx="2871102" cy="788805"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -670,8 +738,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
-            <a:off x="5647448" y="5192784"/>
-            <a:ext cx="340360" cy="311543"/>
+            <a:off x="5642368" y="5010133"/>
+            <a:ext cx="1163497" cy="503871"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1221,15 +1289,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>372111</xdr:colOff>
+      <xdr:colOff>368301</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>74291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>136735</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>60005</xdr:rowOff>
+      <xdr:rowOff>65089</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1244,10 +1312,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5887540" y="5245005"/>
-          <a:ext cx="2803552" cy="638857"/>
-          <a:chOff x="5764851" y="4464534"/>
-          <a:chExt cx="3080463" cy="822311"/>
+          <a:off x="5864861" y="5471791"/>
+          <a:ext cx="3086099" cy="648658"/>
+          <a:chOff x="5762068" y="4464534"/>
+          <a:chExt cx="3381507" cy="823923"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -1266,8 +1334,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5764851" y="4554097"/>
-            <a:ext cx="3080463" cy="732748"/>
+            <a:off x="5762068" y="4560004"/>
+            <a:ext cx="3381507" cy="728453"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -1377,8 +1445,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12923157" y="6453412"/>
-          <a:ext cx="6021917" cy="1428933"/>
+          <a:off x="12928600" y="6690358"/>
+          <a:ext cx="6043870" cy="1445261"/>
           <a:chOff x="6550546" y="5415763"/>
           <a:chExt cx="6018901" cy="1445421"/>
         </a:xfrm>
@@ -1494,16 +1562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>151813</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>433753</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>291194</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>162544</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>566784</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>2524</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1518,8 +1586,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10529527" y="6841672"/>
-          <a:ext cx="1962738" cy="1267443"/>
+          <a:off x="11421793" y="7086601"/>
+          <a:ext cx="1958021" cy="1285223"/>
           <a:chOff x="9916687" y="3327911"/>
           <a:chExt cx="1983740" cy="1297809"/>
         </a:xfrm>
@@ -1635,16 +1703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>444984</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>162561</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61444</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>596840</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213300</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>97592</xdr:rowOff>
+      <xdr:rowOff>126802</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1659,8 +1727,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8391555" y="6802847"/>
-          <a:ext cx="1975214" cy="2710888"/>
+          <a:off x="9215604" y="7071361"/>
+          <a:ext cx="1980656" cy="2748081"/>
           <a:chOff x="6482382" y="4931499"/>
           <a:chExt cx="1979386" cy="2712990"/>
         </a:xfrm>
@@ -1924,15 +1992,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>114722</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>53339</xdr:rowOff>
+      <xdr:colOff>132502</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>176118</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>58422</xdr:rowOff>
+      <xdr:colOff>281528</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>111141</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1947,10 +2015,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12923579" y="5387339"/>
-          <a:ext cx="6139253" cy="984797"/>
-          <a:chOff x="8287738" y="4934573"/>
-          <a:chExt cx="6143917" cy="978795"/>
+          <a:off x="12950612" y="5839460"/>
+          <a:ext cx="6243756" cy="989981"/>
+          <a:chOff x="8287738" y="5110173"/>
+          <a:chExt cx="6232641" cy="971906"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2031,8 +2099,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1" flipV="1">
-            <a:off x="8287738" y="5433022"/>
-            <a:ext cx="1589441" cy="166242"/>
+            <a:off x="8287738" y="5429893"/>
+            <a:ext cx="1589441" cy="169371"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2073,7 +2141,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="12452995" y="4934573"/>
+            <a:off x="12541719" y="5110173"/>
             <a:ext cx="1978660" cy="971906"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -2154,8 +2222,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="11855840" y="5420528"/>
-            <a:ext cx="597155" cy="178736"/>
+            <a:off x="11855839" y="5596126"/>
+            <a:ext cx="685880" cy="3137"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
             <a:avLst/>
@@ -2188,92 +2256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>329989</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>78645</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>442200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>137993</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71F311C-27B1-0A64-1E5F-B40284D3D5AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13144289" y="8117745"/>
-          <a:ext cx="2550611" cy="1710348"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>⑫目標達成画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>(resultGoals)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>633847</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>96600</xdr:rowOff>
+      <xdr:rowOff>102314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>402678</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>524525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>129103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2286,19 +2278,19 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="173" idx="2"/>
+          <a:stCxn id="1945" idx="2"/>
           <a:endCxn id="9" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="6037722" y="-1892245"/>
-          <a:ext cx="6034961" cy="16850331"/>
+          <a:off x="-431159" y="4583620"/>
+          <a:ext cx="6300589" cy="4170578"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -17256"/>
-            <a:gd name="adj2" fmla="val 101357"/>
+            <a:gd name="adj1" fmla="val -3628"/>
+            <a:gd name="adj2" fmla="val 105481"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="57150">
@@ -2351,8 +2343,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12920272" y="3234149"/>
-          <a:ext cx="4393065" cy="2325684"/>
+          <a:off x="12925715" y="3271523"/>
+          <a:ext cx="4409575" cy="2516184"/>
           <a:chOff x="10156370" y="1608142"/>
           <a:chExt cx="4404850" cy="2353167"/>
         </a:xfrm>
@@ -2458,8 +2450,8 @@
             </a:prstGeom>
             <a:solidFill>
               <a:schemeClr val="tx2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
               </a:schemeClr>
             </a:solidFill>
           </xdr:spPr>
@@ -2484,7 +2476,7 @@
               <a:pPr algn="ctr"/>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>⑥着せ替え</a:t>
+                <a:t>⑬着せ替え</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             </a:p>
@@ -2659,8 +2651,8 @@
           </a:prstGeom>
           <a:solidFill>
             <a:schemeClr val="tx2">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
             </a:schemeClr>
           </a:solidFill>
         </xdr:spPr>
@@ -2685,7 +2677,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>⑥キャラの図鑑</a:t>
+              <a:t>⑭キャラの図鑑</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2698,11 +2690,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>193397</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>100332</xdr:rowOff>
+      <xdr:rowOff>97792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
@@ -2719,8 +2711,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5101040" y="3638189"/>
-          <a:ext cx="6924046" cy="1282155"/>
+          <a:off x="5082897" y="3848102"/>
+          <a:ext cx="6949083" cy="1295399"/>
           <a:chOff x="1826979" y="2105225"/>
           <a:chExt cx="7530739" cy="1289659"/>
         </a:xfrm>
@@ -2782,7 +2774,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2038121" y="2811183"/>
+            <a:off x="2079426" y="2785970"/>
             <a:ext cx="946592" cy="368329"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2984,146 +2976,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>439658</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>21021</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>596846</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="186" name="グループ化 185">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4921C8FE-10BF-AFAD-768A-3FC4CEE0DBC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="15679658" y="8620735"/>
-          <a:ext cx="2588331" cy="820808"/>
-          <a:chOff x="13811339" y="6786204"/>
-          <a:chExt cx="2019060" cy="794027"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="170" name="直線矢印コネクタ 169">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B85EE4-E248-44EF-95A3-D2EB3354E802}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="141" idx="3"/>
-            <a:endCxn id="173" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13811339" y="7026483"/>
-            <a:ext cx="762657" cy="156735"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="173" name="角丸四角形 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864F3B10-F0AC-48B6-879C-FD473B2617AC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14573996" y="6786204"/>
-            <a:ext cx="1256403" cy="794027"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx2">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>③登録完了画面</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>(result)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>441336</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -3131,9 +2983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>432434</xdr:colOff>
+      <xdr:colOff>565361</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>94085</xdr:rowOff>
+      <xdr:rowOff>91545</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3151,12 +3003,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5228167" y="-583882"/>
-          <a:ext cx="1726786" cy="9428468"/>
+          <a:off x="5299076" y="-648441"/>
+          <a:ext cx="1724246" cy="9560125"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 113238"/>
+            <a:gd name="adj1" fmla="val 113258"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -3268,8 +3120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20050689" y="6283699"/>
-          <a:ext cx="1609767" cy="2379274"/>
+          <a:off x="20073549" y="6525180"/>
+          <a:ext cx="1617750" cy="2400139"/>
           <a:chOff x="17713889" y="4852590"/>
           <a:chExt cx="1602510" cy="2396329"/>
         </a:xfrm>
@@ -3536,15 +3388,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>320410</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>12264</xdr:rowOff>
+      <xdr:colOff>321645</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>326551</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30871</xdr:rowOff>
+      <xdr:colOff>327791</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144832</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3562,8 +3414,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14353910" y="4254064"/>
-          <a:ext cx="6141" cy="679007"/>
+          <a:off x="14355145" y="4320342"/>
+          <a:ext cx="6146" cy="726690"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3679,8 +3531,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="647701" y="4656493"/>
-          <a:ext cx="1600200" cy="1385900"/>
+          <a:off x="647701" y="4873482"/>
+          <a:ext cx="1590040" cy="1408578"/>
           <a:chOff x="3111487" y="1272460"/>
           <a:chExt cx="1608018" cy="1449776"/>
         </a:xfrm>
@@ -3826,15 +3678,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>520934</xdr:colOff>
+      <xdr:colOff>522234</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>55249</xdr:rowOff>
+      <xdr:rowOff>59059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>383556</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>135452</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556049</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>98158</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3848,18 +3700,16 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="71" idx="2"/>
-          <a:endCxn id="141" idx="2"/>
+          <a:endCxn id="1945" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6082693" y="1491190"/>
-          <a:ext cx="3712403" cy="12956322"/>
+          <a:off x="1072042" y="6506951"/>
+          <a:ext cx="2845799" cy="2065815"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 106158"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -4024,15 +3874,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>163831</xdr:colOff>
+      <xdr:colOff>52071</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>152162</xdr:rowOff>
+      <xdr:rowOff>164862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>124460</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4047,8 +3897,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1103631" y="6375162"/>
-          <a:ext cx="976629" cy="739378"/>
+          <a:off x="991871" y="6552962"/>
+          <a:ext cx="976629" cy="736838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4419,13 +4269,13 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>345197</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>135346</xdr:rowOff>
+      <xdr:rowOff>78196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>495062</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>10174</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4440,8 +4290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18016340" y="4489632"/>
-          <a:ext cx="1973222" cy="527971"/>
+          <a:off x="18036297" y="4650196"/>
+          <a:ext cx="1978665" cy="531418"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4493,15 +4343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>249980</xdr:colOff>
+      <xdr:colOff>253790</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>72761</xdr:rowOff>
+      <xdr:rowOff>13705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>345197</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>87472</xdr:rowOff>
+      <xdr:rowOff>29169</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4520,8 +4370,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17313337" y="4753618"/>
-          <a:ext cx="703003" cy="14711"/>
+          <a:off x="17335290" y="4915905"/>
+          <a:ext cx="701007" cy="15464"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4549,6 +4399,82 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558589</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>68485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>580630</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>126563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1945" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8FC2D29-FA8D-43AC-BDF5-CE832AA03D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3530389" y="8107585"/>
+          <a:ext cx="2549341" cy="1709078"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>⑫目標達成画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>(resultGoals)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5222,10 +5148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:AC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5332,17 +5258,17 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
@@ -5351,15 +5277,15 @@
       <c r="D6" s="5">
         <v>45086</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -5368,15 +5294,15 @@
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
@@ -5390,7 +5316,9 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -5399,11 +5327,18 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>45091</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="21" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="29:29" ht="26" x14ac:dyDescent="0.2">
+      <c r="AC21" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -5449,22 +5384,22 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
